--- a/media/ic.xlsx
+++ b/media/ic.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cafe" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -5653,11 +5653,9 @@
   </numFmts>
   <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5759,18 +5757,18 @@
   <dimension ref="A1:C946"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B946" activeCellId="0" sqref="B946"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.7142857142857"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -5781,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -5792,7 +5790,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -5803,7 +5801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
@@ -5814,7 +5812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -5825,7 +5823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
@@ -5836,7 +5834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
@@ -5847,7 +5845,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>15</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>17</v>
       </c>
@@ -5869,7 +5867,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>19</v>
       </c>
@@ -5880,7 +5878,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>21</v>
       </c>
@@ -5891,7 +5889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
@@ -5902,7 +5900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>25</v>
       </c>
@@ -5913,7 +5911,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>27</v>
       </c>
@@ -5924,7 +5922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>29</v>
       </c>
@@ -5935,7 +5933,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>31</v>
       </c>
@@ -5946,7 +5944,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
@@ -5957,7 +5955,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
@@ -5968,7 +5966,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>37</v>
       </c>
@@ -5979,7 +5977,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>39</v>
       </c>
@@ -5990,7 +5988,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>41</v>
       </c>
@@ -6001,7 +5999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>43</v>
       </c>
@@ -6012,7 +6010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
@@ -6023,7 +6021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
@@ -6034,7 +6032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>49</v>
       </c>
@@ -6045,7 +6043,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>51</v>
       </c>
@@ -6056,7 +6054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>53</v>
       </c>
@@ -6067,7 +6065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>55</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>57</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>59</v>
       </c>
@@ -6100,7 +6098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>61</v>
       </c>
@@ -6111,7 +6109,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>63</v>
       </c>
@@ -6122,7 +6120,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>65</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>67</v>
       </c>
@@ -6144,7 +6142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>69</v>
       </c>
@@ -6155,7 +6153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>71</v>
       </c>
@@ -6166,7 +6164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>73</v>
       </c>
@@ -6177,7 +6175,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>75</v>
       </c>
@@ -6188,7 +6186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>77</v>
       </c>
@@ -6199,7 +6197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>79</v>
       </c>
@@ -6210,7 +6208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>81</v>
       </c>
@@ -6221,7 +6219,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>83</v>
       </c>
@@ -6232,7 +6230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>85</v>
       </c>
@@ -6243,7 +6241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>87</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>89</v>
       </c>
@@ -6265,7 +6263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>91</v>
       </c>
@@ -6276,7 +6274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>93</v>
       </c>
@@ -6287,7 +6285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>95</v>
       </c>
@@ -6298,7 +6296,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>97</v>
       </c>
@@ -6309,7 +6307,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>99</v>
       </c>
@@ -6320,7 +6318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
@@ -6331,7 +6329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>103</v>
       </c>
@@ -6342,7 +6340,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>105</v>
       </c>
@@ -6353,7 +6351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>107</v>
       </c>
@@ -6364,7 +6362,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>109</v>
       </c>
@@ -6375,7 +6373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>111</v>
       </c>
@@ -6386,7 +6384,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>113</v>
       </c>
@@ -6397,7 +6395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>115</v>
       </c>
@@ -6408,7 +6406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>117</v>
       </c>
@@ -6419,7 +6417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>119</v>
       </c>
@@ -6430,7 +6428,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>121</v>
       </c>
@@ -6441,7 +6439,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>123</v>
       </c>
@@ -6452,7 +6450,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>125</v>
       </c>
@@ -6463,7 +6461,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>127</v>
       </c>
@@ -6474,7 +6472,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>129</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>131</v>
       </c>
@@ -6496,7 +6494,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>133</v>
       </c>
@@ -6507,7 +6505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>135</v>
       </c>
@@ -6518,7 +6516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>137</v>
       </c>
@@ -6529,7 +6527,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>139</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>141</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>143</v>
       </c>
@@ -6562,7 +6560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>145</v>
       </c>
@@ -6573,7 +6571,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>147</v>
       </c>
@@ -6584,7 +6582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>149</v>
       </c>
@@ -6595,7 +6593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>151</v>
       </c>
@@ -6606,7 +6604,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>153</v>
       </c>
@@ -6617,7 +6615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>155</v>
       </c>
@@ -6628,7 +6626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>157</v>
       </c>
@@ -6639,7 +6637,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>159</v>
       </c>
@@ -6650,7 +6648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>161</v>
       </c>
@@ -6661,7 +6659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>163</v>
       </c>
@@ -6672,7 +6670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>165</v>
       </c>
@@ -6683,7 +6681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>167</v>
       </c>
@@ -6694,7 +6692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>169</v>
       </c>
@@ -6705,7 +6703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>171</v>
       </c>
@@ -6716,7 +6714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>173</v>
       </c>
@@ -6727,7 +6725,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>175</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>177</v>
       </c>
@@ -6749,7 +6747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>179</v>
       </c>
@@ -6760,7 +6758,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>181</v>
       </c>
@@ -6771,7 +6769,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>183</v>
       </c>
@@ -6782,7 +6780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>185</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>187</v>
       </c>
@@ -6804,7 +6802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>189</v>
       </c>
@@ -6815,7 +6813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>191</v>
       </c>
@@ -6826,7 +6824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>193</v>
       </c>
@@ -6837,7 +6835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>195</v>
       </c>
@@ -6848,7 +6846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>197</v>
       </c>
@@ -6859,7 +6857,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>199</v>
       </c>
@@ -6870,7 +6868,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>201</v>
       </c>
@@ -6881,7 +6879,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>203</v>
       </c>
@@ -6892,7 +6890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>205</v>
       </c>
@@ -6903,7 +6901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>207</v>
       </c>
@@ -6914,7 +6912,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>209</v>
       </c>
@@ -6925,7 +6923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>211</v>
       </c>
@@ -6936,7 +6934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>213</v>
       </c>
@@ -6947,7 +6945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>215</v>
       </c>
@@ -6958,7 +6956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>217</v>
       </c>
@@ -6969,7 +6967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>219</v>
       </c>
@@ -6980,7 +6978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>221</v>
       </c>
@@ -6991,7 +6989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>223</v>
       </c>
@@ -7002,7 +7000,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>225</v>
       </c>
@@ -7013,7 +7011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>227</v>
       </c>
@@ -7024,7 +7022,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>229</v>
       </c>
@@ -7035,7 +7033,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>231</v>
       </c>
@@ -7046,7 +7044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>233</v>
       </c>
@@ -7057,7 +7055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>235</v>
       </c>
@@ -7068,7 +7066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>237</v>
       </c>
@@ -7079,7 +7077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>239</v>
       </c>
@@ -7090,7 +7088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>241</v>
       </c>
@@ -7101,7 +7099,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>243</v>
       </c>
@@ -7112,7 +7110,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>245</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>247</v>
       </c>
@@ -7134,7 +7132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>249</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
         <v>251</v>
       </c>
@@ -7156,7 +7154,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
         <v>253</v>
       </c>
@@ -7167,7 +7165,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
         <v>255</v>
       </c>
@@ -7178,7 +7176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>257</v>
       </c>
@@ -7189,7 +7187,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
         <v>259</v>
       </c>
@@ -7200,7 +7198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
         <v>261</v>
       </c>
@@ -7211,7 +7209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
         <v>263</v>
       </c>
@@ -7222,7 +7220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
         <v>265</v>
       </c>
@@ -7233,7 +7231,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
         <v>267</v>
       </c>
@@ -7244,7 +7242,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
         <v>269</v>
       </c>
@@ -7255,7 +7253,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
         <v>271</v>
       </c>
@@ -7266,7 +7264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
         <v>273</v>
       </c>
@@ -7277,7 +7275,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
         <v>275</v>
       </c>
@@ -7288,7 +7286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
         <v>277</v>
       </c>
@@ -7299,7 +7297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
         <v>279</v>
       </c>
@@ -7310,7 +7308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
         <v>281</v>
       </c>
@@ -7321,7 +7319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
         <v>283</v>
       </c>
@@ -7332,7 +7330,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
         <v>285</v>
       </c>
@@ -7343,7 +7341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
         <v>287</v>
       </c>
@@ -7354,7 +7352,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
         <v>289</v>
       </c>
@@ -7365,7 +7363,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
         <v>291</v>
       </c>
@@ -7376,7 +7374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
         <v>293</v>
       </c>
@@ -7387,7 +7385,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
         <v>295</v>
       </c>
@@ -7398,7 +7396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
         <v>297</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
         <v>299</v>
       </c>
@@ -7420,7 +7418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
         <v>301</v>
       </c>
@@ -7431,7 +7429,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
         <v>303</v>
       </c>
@@ -7442,7 +7440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
         <v>305</v>
       </c>
@@ -7453,7 +7451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
         <v>307</v>
       </c>
@@ -7464,7 +7462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
         <v>309</v>
       </c>
@@ -7475,7 +7473,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
         <v>311</v>
       </c>
@@ -7486,7 +7484,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
         <v>313</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
         <v>315</v>
       </c>
@@ -7508,7 +7506,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
         <v>317</v>
       </c>
@@ -7519,7 +7517,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
         <v>319</v>
       </c>
@@ -7530,7 +7528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
         <v>321</v>
       </c>
@@ -7541,7 +7539,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
         <v>323</v>
       </c>
@@ -7552,7 +7550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
         <v>325</v>
       </c>
@@ -7563,7 +7561,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
         <v>327</v>
       </c>
@@ -7574,7 +7572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
         <v>329</v>
       </c>
@@ -7585,7 +7583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
         <v>331</v>
       </c>
@@ -7596,7 +7594,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
         <v>333</v>
       </c>
@@ -7607,7 +7605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
         <v>335</v>
       </c>
@@ -7618,7 +7616,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
         <v>337</v>
       </c>
@@ -7629,7 +7627,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
         <v>339</v>
       </c>
@@ -7640,7 +7638,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
         <v>341</v>
       </c>
@@ -7651,7 +7649,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
         <v>343</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
         <v>345</v>
       </c>
@@ -7673,7 +7671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
         <v>347</v>
       </c>
@@ -7684,7 +7682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
         <v>349</v>
       </c>
@@ -7695,7 +7693,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
         <v>351</v>
       </c>
@@ -7706,7 +7704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
         <v>353</v>
       </c>
@@ -7717,7 +7715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
         <v>355</v>
       </c>
@@ -7728,7 +7726,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
         <v>357</v>
       </c>
@@ -7739,7 +7737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
         <v>359</v>
       </c>
@@ -7750,7 +7748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
         <v>361</v>
       </c>
@@ -7761,7 +7759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
         <v>363</v>
       </c>
@@ -7772,7 +7770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
         <v>365</v>
       </c>
@@ -7783,7 +7781,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
         <v>367</v>
       </c>
@@ -7794,7 +7792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
         <v>369</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
         <v>371</v>
       </c>
@@ -7816,7 +7814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
         <v>373</v>
       </c>
@@ -7827,7 +7825,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
         <v>375</v>
       </c>
@@ -7838,7 +7836,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
         <v>377</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
         <v>379</v>
       </c>
@@ -7860,7 +7858,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
         <v>381</v>
       </c>
@@ -7871,7 +7869,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
         <v>383</v>
       </c>
@@ -7882,7 +7880,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
         <v>385</v>
       </c>
@@ -7893,7 +7891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
         <v>387</v>
       </c>
@@ -7904,7 +7902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
         <v>389</v>
       </c>
@@ -7915,7 +7913,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>391</v>
       </c>
@@ -7926,7 +7924,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
         <v>393</v>
       </c>
@@ -7937,7 +7935,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
         <v>395</v>
       </c>
@@ -7948,7 +7946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
         <v>397</v>
       </c>
@@ -7959,7 +7957,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
         <v>399</v>
       </c>
@@ -7970,7 +7968,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
         <v>401</v>
       </c>
@@ -7981,7 +7979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
         <v>403</v>
       </c>
@@ -7992,7 +7990,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
         <v>405</v>
       </c>
@@ -8003,7 +8001,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
         <v>407</v>
       </c>
@@ -8014,7 +8012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
         <v>409</v>
       </c>
@@ -8025,7 +8023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
         <v>411</v>
       </c>
@@ -8036,7 +8034,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
         <v>413</v>
       </c>
@@ -8047,7 +8045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
         <v>415</v>
       </c>
@@ -8058,7 +8056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
         <v>417</v>
       </c>
@@ -8069,7 +8067,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>419</v>
       </c>
@@ -8080,7 +8078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
         <v>421</v>
       </c>
@@ -8091,7 +8089,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
         <v>423</v>
       </c>
@@ -8102,7 +8100,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>425</v>
       </c>
@@ -8113,7 +8111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
         <v>427</v>
       </c>
@@ -8124,7 +8122,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
         <v>429</v>
       </c>
@@ -8135,7 +8133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
         <v>431</v>
       </c>
@@ -8146,7 +8144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
         <v>433</v>
       </c>
@@ -8157,7 +8155,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
         <v>435</v>
       </c>
@@ -8168,7 +8166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
         <v>437</v>
       </c>
@@ -8179,7 +8177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
         <v>439</v>
       </c>
@@ -8190,7 +8188,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
         <v>441</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
         <v>443</v>
       </c>
@@ -8212,7 +8210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
         <v>445</v>
       </c>
@@ -8223,7 +8221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
         <v>447</v>
       </c>
@@ -8234,7 +8232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
         <v>449</v>
       </c>
@@ -8245,7 +8243,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
         <v>451</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
         <v>453</v>
       </c>
@@ -8267,7 +8265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
         <v>455</v>
       </c>
@@ -8278,7 +8276,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
         <v>457</v>
       </c>
@@ -8289,7 +8287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
         <v>459</v>
       </c>
@@ -8300,7 +8298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>461</v>
       </c>
@@ -8311,7 +8309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
         <v>463</v>
       </c>
@@ -8322,7 +8320,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
         <v>465</v>
       </c>
@@ -8333,7 +8331,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
         <v>467</v>
       </c>
@@ -8344,7 +8342,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
         <v>469</v>
       </c>
@@ -8355,7 +8353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
         <v>471</v>
       </c>
@@ -8366,7 +8364,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
         <v>473</v>
       </c>
@@ -8377,7 +8375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
         <v>475</v>
       </c>
@@ -8388,7 +8386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
         <v>477</v>
       </c>
@@ -8399,7 +8397,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
         <v>479</v>
       </c>
@@ -8410,7 +8408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>481</v>
       </c>
@@ -8421,7 +8419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
         <v>483</v>
       </c>
@@ -8432,7 +8430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
         <v>485</v>
       </c>
@@ -8443,7 +8441,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
         <v>487</v>
       </c>
@@ -8454,7 +8452,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
         <v>489</v>
       </c>
@@ -8465,7 +8463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
         <v>491</v>
       </c>
@@ -8476,7 +8474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
         <v>493</v>
       </c>
@@ -8487,7 +8485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
         <v>495</v>
       </c>
@@ -8498,7 +8496,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
         <v>497</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
         <v>499</v>
       </c>
@@ -8520,7 +8518,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
         <v>501</v>
       </c>
@@ -8531,7 +8529,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
         <v>503</v>
       </c>
@@ -8542,7 +8540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
         <v>505</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
         <v>507</v>
       </c>
@@ -8564,7 +8562,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
         <v>509</v>
       </c>
@@ -8575,7 +8573,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
         <v>511</v>
       </c>
@@ -8586,7 +8584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
         <v>513</v>
       </c>
@@ -8597,7 +8595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>515</v>
       </c>
@@ -8608,7 +8606,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
         <v>517</v>
       </c>
@@ -8619,7 +8617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
         <v>519</v>
       </c>
@@ -8630,7 +8628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
         <v>521</v>
       </c>
@@ -8641,7 +8639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
         <v>523</v>
       </c>
@@ -8652,7 +8650,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
         <v>525</v>
       </c>
@@ -8663,7 +8661,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
         <v>527</v>
       </c>
@@ -8674,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
         <v>529</v>
       </c>
@@ -8685,7 +8683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
         <v>531</v>
       </c>
@@ -8696,7 +8694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
         <v>533</v>
       </c>
@@ -8707,7 +8705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
         <v>535</v>
       </c>
@@ -8718,7 +8716,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
         <v>537</v>
       </c>
@@ -8729,7 +8727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
         <v>539</v>
       </c>
@@ -8740,7 +8738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
         <v>541</v>
       </c>
@@ -8751,7 +8749,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>543</v>
       </c>
@@ -8762,7 +8760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
         <v>545</v>
       </c>
@@ -8773,7 +8771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
         <v>547</v>
       </c>
@@ -8784,7 +8782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>549</v>
       </c>
@@ -8795,7 +8793,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>551</v>
       </c>
@@ -8806,7 +8804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
         <v>553</v>
       </c>
@@ -8817,7 +8815,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
         <v>555</v>
       </c>
@@ -8828,7 +8826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>557</v>
       </c>
@@ -8839,7 +8837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
         <v>559</v>
       </c>
@@ -8850,7 +8848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
         <v>561</v>
       </c>
@@ -8861,7 +8859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
         <v>563</v>
       </c>
@@ -8872,7 +8870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
         <v>565</v>
       </c>
@@ -8883,7 +8881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
         <v>567</v>
       </c>
@@ -8894,7 +8892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
         <v>569</v>
       </c>
@@ -8905,7 +8903,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
         <v>571</v>
       </c>
@@ -8916,7 +8914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
         <v>573</v>
       </c>
@@ -8927,7 +8925,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
         <v>575</v>
       </c>
@@ -8938,7 +8936,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
         <v>577</v>
       </c>
@@ -8949,7 +8947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
         <v>579</v>
       </c>
@@ -8960,7 +8958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
         <v>581</v>
       </c>
@@ -8971,7 +8969,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
         <v>583</v>
       </c>
@@ -8982,7 +8980,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
         <v>585</v>
       </c>
@@ -8993,7 +8991,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
         <v>587</v>
       </c>
@@ -9004,7 +9002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
         <v>589</v>
       </c>
@@ -9015,7 +9013,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
         <v>591</v>
       </c>
@@ -9026,7 +9024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
         <v>593</v>
       </c>
@@ -9037,7 +9035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
         <v>595</v>
       </c>
@@ -9048,7 +9046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
         <v>597</v>
       </c>
@@ -9059,7 +9057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
         <v>599</v>
       </c>
@@ -9070,7 +9068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
         <v>601</v>
       </c>
@@ -9081,7 +9079,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="0" t="s">
         <v>603</v>
       </c>
@@ -9092,7 +9090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="0" t="s">
         <v>605</v>
       </c>
@@ -9103,7 +9101,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
         <v>607</v>
       </c>
@@ -9114,7 +9112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="0" t="s">
         <v>609</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
         <v>611</v>
       </c>
@@ -9136,7 +9134,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
         <v>613</v>
       </c>
@@ -9147,7 +9145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
         <v>615</v>
       </c>
@@ -9158,7 +9156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
         <v>617</v>
       </c>
@@ -9169,7 +9167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
         <v>619</v>
       </c>
@@ -9180,7 +9178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
         <v>621</v>
       </c>
@@ -9191,7 +9189,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
         <v>623</v>
       </c>
@@ -9202,7 +9200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
         <v>625</v>
       </c>
@@ -9213,7 +9211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
         <v>627</v>
       </c>
@@ -9224,7 +9222,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
         <v>629</v>
       </c>
@@ -9235,7 +9233,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
         <v>631</v>
       </c>
@@ -9246,7 +9244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="0" t="s">
         <v>633</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="0" t="s">
         <v>635</v>
       </c>
@@ -9268,7 +9266,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
         <v>637</v>
       </c>
@@ -9279,7 +9277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
         <v>639</v>
       </c>
@@ -9290,7 +9288,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
         <v>641</v>
       </c>
@@ -9301,7 +9299,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
         <v>643</v>
       </c>
@@ -9312,7 +9310,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="0" t="s">
         <v>645</v>
       </c>
@@ -9323,7 +9321,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
         <v>647</v>
       </c>
@@ -9334,7 +9332,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
         <v>649</v>
       </c>
@@ -9345,7 +9343,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
         <v>651</v>
       </c>
@@ -9356,7 +9354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="0" t="s">
         <v>653</v>
       </c>
@@ -9367,7 +9365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
         <v>655</v>
       </c>
@@ -9378,7 +9376,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
         <v>657</v>
       </c>
@@ -9389,7 +9387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
         <v>658</v>
       </c>
@@ -9400,7 +9398,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
         <v>660</v>
       </c>
@@ -9411,7 +9409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
         <v>662</v>
       </c>
@@ -9422,7 +9420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
         <v>664</v>
       </c>
@@ -9433,7 +9431,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
         <v>666</v>
       </c>
@@ -9444,7 +9442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
         <v>668</v>
       </c>
@@ -9455,7 +9453,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
         <v>670</v>
       </c>
@@ -9466,7 +9464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
         <v>672</v>
       </c>
@@ -9477,7 +9475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
         <v>674</v>
       </c>
@@ -9488,7 +9486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
         <v>676</v>
       </c>
@@ -9499,7 +9497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
         <v>678</v>
       </c>
@@ -9510,7 +9508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
         <v>680</v>
       </c>
@@ -9521,7 +9519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
         <v>682</v>
       </c>
@@ -9532,7 +9530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
         <v>684</v>
       </c>
@@ -9543,7 +9541,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
         <v>686</v>
       </c>
@@ -9554,7 +9552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
         <v>688</v>
       </c>
@@ -9565,7 +9563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
         <v>690</v>
       </c>
@@ -9576,7 +9574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
         <v>692</v>
       </c>
@@ -9587,7 +9585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
         <v>694</v>
       </c>
@@ -9598,7 +9596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
         <v>696</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
         <v>698</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
         <v>700</v>
       </c>
@@ -9631,7 +9629,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
         <v>702</v>
       </c>
@@ -9642,7 +9640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
         <v>704</v>
       </c>
@@ -9653,7 +9651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
         <v>706</v>
       </c>
@@ -9664,7 +9662,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
         <v>708</v>
       </c>
@@ -9675,7 +9673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
         <v>710</v>
       </c>
@@ -9686,7 +9684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
         <v>712</v>
       </c>
@@ -9697,7 +9695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
         <v>714</v>
       </c>
@@ -9708,7 +9706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
         <v>716</v>
       </c>
@@ -9719,7 +9717,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
         <v>718</v>
       </c>
@@ -9730,7 +9728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
         <v>720</v>
       </c>
@@ -9741,7 +9739,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
         <v>722</v>
       </c>
@@ -9752,7 +9750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
         <v>724</v>
       </c>
@@ -9763,7 +9761,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
         <v>726</v>
       </c>
@@ -9774,7 +9772,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
         <v>728</v>
       </c>
@@ -9785,7 +9783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
         <v>730</v>
       </c>
@@ -9796,7 +9794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
         <v>732</v>
       </c>
@@ -9807,7 +9805,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
         <v>734</v>
       </c>
@@ -9818,7 +9816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
         <v>736</v>
       </c>
@@ -9829,7 +9827,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
         <v>738</v>
       </c>
@@ -9840,7 +9838,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
         <v>740</v>
       </c>
@@ -9851,7 +9849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
         <v>742</v>
       </c>
@@ -9862,7 +9860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
         <v>744</v>
       </c>
@@ -9873,7 +9871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
         <v>746</v>
       </c>
@@ -9884,7 +9882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
         <v>748</v>
       </c>
@@ -9895,7 +9893,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
         <v>750</v>
       </c>
@@ -9906,7 +9904,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
         <v>752</v>
       </c>
@@ -9917,7 +9915,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
         <v>754</v>
       </c>
@@ -9928,7 +9926,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
         <v>756</v>
       </c>
@@ -9939,7 +9937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
         <v>758</v>
       </c>
@@ -9950,7 +9948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
         <v>760</v>
       </c>
@@ -9961,7 +9959,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
         <v>762</v>
       </c>
@@ -9972,7 +9970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
         <v>764</v>
       </c>
@@ -9983,7 +9981,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
         <v>766</v>
       </c>
@@ -9994,7 +9992,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
         <v>768</v>
       </c>
@@ -10005,7 +10003,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
         <v>770</v>
       </c>
@@ -10016,7 +10014,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
         <v>772</v>
       </c>
@@ -10027,7 +10025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
         <v>774</v>
       </c>
@@ -10038,7 +10036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
         <v>776</v>
       </c>
@@ -10049,7 +10047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
         <v>778</v>
       </c>
@@ -10060,7 +10058,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
         <v>780</v>
       </c>
@@ -10071,7 +10069,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
         <v>782</v>
       </c>
@@ -10082,7 +10080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
         <v>784</v>
       </c>
@@ -10093,7 +10091,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
         <v>786</v>
       </c>
@@ -10104,7 +10102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
         <v>788</v>
       </c>
@@ -10115,7 +10113,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
         <v>790</v>
       </c>
@@ -10126,7 +10124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
         <v>792</v>
       </c>
@@ -10137,7 +10135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
         <v>794</v>
       </c>
@@ -10148,7 +10146,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
         <v>796</v>
       </c>
@@ -10159,7 +10157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
         <v>798</v>
       </c>
@@ -10170,7 +10168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
         <v>800</v>
       </c>
@@ -10181,7 +10179,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
         <v>802</v>
       </c>
@@ -10192,7 +10190,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
         <v>804</v>
       </c>
@@ -10203,7 +10201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
         <v>806</v>
       </c>
@@ -10214,7 +10212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
         <v>808</v>
       </c>
@@ -10225,7 +10223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
         <v>810</v>
       </c>
@@ -10236,7 +10234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
         <v>812</v>
       </c>
@@ -10247,7 +10245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
         <v>814</v>
       </c>
@@ -10258,7 +10256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
         <v>816</v>
       </c>
@@ -10269,7 +10267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
         <v>818</v>
       </c>
@@ -10280,7 +10278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
         <v>820</v>
       </c>
@@ -10291,7 +10289,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
         <v>822</v>
       </c>
@@ -10302,7 +10300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
         <v>824</v>
       </c>
@@ -10313,7 +10311,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
         <v>826</v>
       </c>
@@ -10324,7 +10322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
         <v>828</v>
       </c>
@@ -10335,7 +10333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
         <v>830</v>
       </c>
@@ -10346,7 +10344,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
         <v>832</v>
       </c>
@@ -10357,7 +10355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
         <v>834</v>
       </c>
@@ -10368,7 +10366,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
         <v>836</v>
       </c>
@@ -10379,7 +10377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
         <v>838</v>
       </c>
@@ -10390,7 +10388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
         <v>840</v>
       </c>
@@ -10401,7 +10399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
         <v>842</v>
       </c>
@@ -10412,7 +10410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
         <v>844</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
         <v>846</v>
       </c>
@@ -10434,7 +10432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
         <v>848</v>
       </c>
@@ -10445,7 +10443,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
         <v>850</v>
       </c>
@@ -10456,7 +10454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
         <v>852</v>
       </c>
@@ -10467,7 +10465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
         <v>854</v>
       </c>
@@ -10478,7 +10476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
         <v>856</v>
       </c>
@@ -10489,7 +10487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
         <v>858</v>
       </c>
@@ -10500,7 +10498,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
         <v>860</v>
       </c>
@@ -10511,7 +10509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
         <v>862</v>
       </c>
@@ -10522,7 +10520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
         <v>864</v>
       </c>
@@ -10533,7 +10531,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
         <v>866</v>
       </c>
@@ -10544,7 +10542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
         <v>868</v>
       </c>
@@ -10555,7 +10553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
         <v>870</v>
       </c>
@@ -10566,7 +10564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
         <v>872</v>
       </c>
@@ -10577,7 +10575,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
         <v>874</v>
       </c>
@@ -10588,7 +10586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
         <v>876</v>
       </c>
@@ -10599,7 +10597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
         <v>878</v>
       </c>
@@ -10610,7 +10608,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
         <v>880</v>
       </c>
@@ -10621,7 +10619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
         <v>882</v>
       </c>
@@ -10632,7 +10630,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
         <v>884</v>
       </c>
@@ -10643,7 +10641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
         <v>886</v>
       </c>
@@ -10654,7 +10652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
         <v>888</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
         <v>890</v>
       </c>
@@ -10676,7 +10674,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
         <v>892</v>
       </c>
@@ -10687,7 +10685,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
         <v>894</v>
       </c>
@@ -10698,7 +10696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
         <v>896</v>
       </c>
@@ -10709,7 +10707,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
         <v>898</v>
       </c>
@@ -10720,7 +10718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
         <v>900</v>
       </c>
@@ -10731,7 +10729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
         <v>902</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
         <v>904</v>
       </c>
@@ -10753,7 +10751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
         <v>906</v>
       </c>
@@ -10764,7 +10762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
         <v>908</v>
       </c>
@@ -10775,7 +10773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
         <v>910</v>
       </c>
@@ -10786,7 +10784,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
         <v>912</v>
       </c>
@@ -10797,7 +10795,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
         <v>914</v>
       </c>
@@ -10808,7 +10806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
         <v>916</v>
       </c>
@@ -10819,7 +10817,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
         <v>918</v>
       </c>
@@ -10830,7 +10828,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
         <v>920</v>
       </c>
@@ -10841,7 +10839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
         <v>922</v>
       </c>
@@ -10852,7 +10850,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
         <v>924</v>
       </c>
@@ -10863,7 +10861,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
         <v>926</v>
       </c>
@@ -10874,7 +10872,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
         <v>928</v>
       </c>
@@ -10885,7 +10883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
         <v>930</v>
       </c>
@@ -10896,7 +10894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
         <v>932</v>
       </c>
@@ -10907,7 +10905,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
         <v>934</v>
       </c>
@@ -10918,7 +10916,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
         <v>936</v>
       </c>
@@ -10929,7 +10927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
         <v>938</v>
       </c>
@@ -10940,7 +10938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
         <v>940</v>
       </c>
@@ -10951,7 +10949,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
         <v>942</v>
       </c>
@@ -10962,7 +10960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
         <v>944</v>
       </c>
@@ -10973,7 +10971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
         <v>946</v>
       </c>
@@ -10984,7 +10982,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
         <v>948</v>
       </c>
@@ -10995,7 +10993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
         <v>950</v>
       </c>
@@ -11006,7 +11004,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
         <v>952</v>
       </c>
@@ -11017,7 +11015,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
         <v>954</v>
       </c>
@@ -11028,7 +11026,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
         <v>956</v>
       </c>
@@ -11039,7 +11037,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
         <v>958</v>
       </c>
@@ -11050,7 +11048,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
         <v>960</v>
       </c>
@@ -11061,7 +11059,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
         <v>962</v>
       </c>
@@ -11072,7 +11070,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
         <v>964</v>
       </c>
@@ -11083,7 +11081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
         <v>966</v>
       </c>
@@ -11094,7 +11092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
         <v>968</v>
       </c>
@@ -11105,7 +11103,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
         <v>970</v>
       </c>
@@ -11116,7 +11114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
         <v>972</v>
       </c>
@@ -11127,7 +11125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
         <v>973</v>
       </c>
@@ -11138,7 +11136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
         <v>975</v>
       </c>
@@ -11149,7 +11147,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
         <v>977</v>
       </c>
@@ -11160,7 +11158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
         <v>979</v>
       </c>
@@ -11171,7 +11169,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
         <v>981</v>
       </c>
@@ -11182,7 +11180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
         <v>983</v>
       </c>
@@ -11193,7 +11191,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
         <v>985</v>
       </c>
@@ -11204,7 +11202,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
         <v>987</v>
       </c>
@@ -11215,7 +11213,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
         <v>989</v>
       </c>
@@ -11226,7 +11224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
         <v>991</v>
       </c>
@@ -11237,7 +11235,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
         <v>993</v>
       </c>
@@ -11248,7 +11246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
         <v>995</v>
       </c>
@@ -11259,7 +11257,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
         <v>997</v>
       </c>
@@ -11270,7 +11268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
         <v>999</v>
       </c>
@@ -11281,7 +11279,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
         <v>1001</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
         <v>1003</v>
       </c>
@@ -11303,7 +11301,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
         <v>1005</v>
       </c>
@@ -11314,7 +11312,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
         <v>1007</v>
       </c>
@@ -11325,7 +11323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
         <v>1009</v>
       </c>
@@ -11336,7 +11334,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
         <v>1011</v>
       </c>
@@ -11347,7 +11345,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
         <v>1013</v>
       </c>
@@ -11358,7 +11356,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
         <v>1015</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
         <v>1017</v>
       </c>
@@ -11380,7 +11378,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
         <v>1019</v>
       </c>
@@ -11391,7 +11389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
         <v>1021</v>
       </c>
@@ -11402,7 +11400,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
         <v>1023</v>
       </c>
@@ -11413,7 +11411,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
         <v>1025</v>
       </c>
@@ -11424,7 +11422,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
         <v>1027</v>
       </c>
@@ -11435,7 +11433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
         <v>1029</v>
       </c>
@@ -11446,7 +11444,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
         <v>1031</v>
       </c>
@@ -11457,7 +11455,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
         <v>1033</v>
       </c>
@@ -11468,7 +11466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
         <v>1035</v>
       </c>
@@ -11479,7 +11477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
         <v>1037</v>
       </c>
@@ -11490,7 +11488,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
         <v>1039</v>
       </c>
@@ -11501,7 +11499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
         <v>1041</v>
       </c>
@@ -11512,7 +11510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
         <v>1043</v>
       </c>
@@ -11523,7 +11521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
         <v>1045</v>
       </c>
@@ -11534,7 +11532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
         <v>1047</v>
       </c>
@@ -11545,7 +11543,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
         <v>1049</v>
       </c>
@@ -11556,7 +11554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
         <v>1051</v>
       </c>
@@ -11567,7 +11565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
         <v>1053</v>
       </c>
@@ -11578,7 +11576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
         <v>1055</v>
       </c>
@@ -11589,7 +11587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
         <v>1057</v>
       </c>
@@ -11600,7 +11598,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
         <v>1059</v>
       </c>
@@ -11611,7 +11609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
         <v>1061</v>
       </c>
@@ -11622,7 +11620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
         <v>1063</v>
       </c>
@@ -11633,7 +11631,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
         <v>1065</v>
       </c>
@@ -11644,7 +11642,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
         <v>1067</v>
       </c>
@@ -11655,7 +11653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
         <v>1069</v>
       </c>
@@ -11666,7 +11664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
         <v>1071</v>
       </c>
@@ -11677,7 +11675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
         <v>1073</v>
       </c>
@@ -11688,7 +11686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
         <v>1075</v>
       </c>
@@ -11699,7 +11697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
         <v>1077</v>
       </c>
@@ -11710,7 +11708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
         <v>1079</v>
       </c>
@@ -11721,7 +11719,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
         <v>1081</v>
       </c>
@@ -11732,7 +11730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
         <v>1083</v>
       </c>
@@ -11743,7 +11741,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
         <v>1085</v>
       </c>
@@ -11754,7 +11752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
         <v>1087</v>
       </c>
@@ -11765,7 +11763,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
         <v>1089</v>
       </c>
@@ -11776,7 +11774,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
         <v>1091</v>
       </c>
@@ -11787,7 +11785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
         <v>1093</v>
       </c>
@@ -11798,7 +11796,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
         <v>1095</v>
       </c>
@@ -11809,7 +11807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
         <v>1096</v>
       </c>
@@ -11820,7 +11818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
         <v>1098</v>
       </c>
@@ -11831,7 +11829,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
         <v>1100</v>
       </c>
@@ -11842,7 +11840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
         <v>1102</v>
       </c>
@@ -11853,7 +11851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
         <v>1104</v>
       </c>
@@ -11864,7 +11862,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
         <v>1106</v>
       </c>
@@ -11875,7 +11873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
         <v>1108</v>
       </c>
@@ -11886,7 +11884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
         <v>1110</v>
       </c>
@@ -11897,7 +11895,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
         <v>1112</v>
       </c>
@@ -11908,7 +11906,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
         <v>1114</v>
       </c>
@@ -11919,7 +11917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
         <v>1116</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
         <v>1118</v>
       </c>
@@ -11941,7 +11939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
         <v>1120</v>
       </c>
@@ -11952,7 +11950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
         <v>1122</v>
       </c>
@@ -11963,7 +11961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
         <v>1124</v>
       </c>
@@ -11974,7 +11972,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
         <v>1126</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
         <v>1128</v>
       </c>
@@ -11996,7 +11994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
         <v>1130</v>
       </c>
@@ -12007,7 +12005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
         <v>1132</v>
       </c>
@@ -12018,7 +12016,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
         <v>1134</v>
       </c>
@@ -12029,7 +12027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
         <v>1136</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
         <v>1138</v>
       </c>
@@ -12051,7 +12049,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
         <v>1140</v>
       </c>
@@ -12062,7 +12060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
         <v>1142</v>
       </c>
@@ -12073,7 +12071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
         <v>1144</v>
       </c>
@@ -12084,7 +12082,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
         <v>1146</v>
       </c>
@@ -12095,7 +12093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
         <v>1148</v>
       </c>
@@ -12106,7 +12104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
         <v>1150</v>
       </c>
@@ -12117,7 +12115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
         <v>1152</v>
       </c>
@@ -12128,7 +12126,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
         <v>1154</v>
       </c>
@@ -12139,7 +12137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
         <v>1156</v>
       </c>
@@ -12150,7 +12148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
         <v>1158</v>
       </c>
@@ -12161,7 +12159,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
         <v>1160</v>
       </c>
@@ -12172,7 +12170,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
         <v>1162</v>
       </c>
@@ -12183,7 +12181,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
         <v>1164</v>
       </c>
@@ -12194,7 +12192,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
         <v>1166</v>
       </c>
@@ -12205,7 +12203,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
         <v>1168</v>
       </c>
@@ -12216,7 +12214,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
         <v>1170</v>
       </c>
@@ -12227,7 +12225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
         <v>1172</v>
       </c>
@@ -12238,7 +12236,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
         <v>1174</v>
       </c>
@@ -12249,7 +12247,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
         <v>1176</v>
       </c>
@@ -12260,7 +12258,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
         <v>1178</v>
       </c>
@@ -12271,7 +12269,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
         <v>1180</v>
       </c>
@@ -12282,7 +12280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
         <v>1182</v>
       </c>
@@ -12293,7 +12291,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
         <v>1184</v>
       </c>
@@ -12304,7 +12302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
         <v>1186</v>
       </c>
@@ -12315,7 +12313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
         <v>1188</v>
       </c>
@@ -12326,7 +12324,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
         <v>1190</v>
       </c>
@@ -12337,7 +12335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
         <v>1192</v>
       </c>
@@ -12348,7 +12346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
         <v>1194</v>
       </c>
@@ -12359,7 +12357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
         <v>1196</v>
       </c>
@@ -12370,7 +12368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
         <v>1198</v>
       </c>
@@ -12381,7 +12379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
         <v>1200</v>
       </c>
@@ -12392,7 +12390,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
         <v>1202</v>
       </c>
@@ -12403,7 +12401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
         <v>1204</v>
       </c>
@@ -12414,7 +12412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
         <v>1206</v>
       </c>
@@ -12425,7 +12423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
         <v>1208</v>
       </c>
@@ -12436,7 +12434,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
         <v>1210</v>
       </c>
@@ -12447,7 +12445,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
         <v>1212</v>
       </c>
@@ -12458,7 +12456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
         <v>1214</v>
       </c>
@@ -12469,7 +12467,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
         <v>1216</v>
       </c>
@@ -12480,7 +12478,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
         <v>1218</v>
       </c>
@@ -12491,7 +12489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
         <v>1220</v>
       </c>
@@ -12502,7 +12500,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
         <v>1222</v>
       </c>
@@ -12513,7 +12511,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
         <v>1224</v>
       </c>
@@ -12524,7 +12522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
         <v>1226</v>
       </c>
@@ -12535,7 +12533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
         <v>1228</v>
       </c>
@@ -12546,7 +12544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
         <v>1230</v>
       </c>
@@ -12557,7 +12555,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
         <v>1232</v>
       </c>
@@ -12568,7 +12566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
         <v>1234</v>
       </c>
@@ -12579,7 +12577,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
         <v>1236</v>
       </c>
@@ -12590,7 +12588,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
         <v>1238</v>
       </c>
@@ -12601,7 +12599,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
         <v>1240</v>
       </c>
@@ -12612,7 +12610,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
         <v>1242</v>
       </c>
@@ -12623,7 +12621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
         <v>1244</v>
       </c>
@@ -12634,7 +12632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
         <v>1246</v>
       </c>
@@ -12645,7 +12643,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
         <v>1248</v>
       </c>
@@ -12656,7 +12654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
         <v>1250</v>
       </c>
@@ -12667,7 +12665,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
         <v>1252</v>
       </c>
@@ -12678,7 +12676,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
         <v>1254</v>
       </c>
@@ -12689,7 +12687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
         <v>1256</v>
       </c>
@@ -12700,7 +12698,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
         <v>1258</v>
       </c>
@@ -12711,7 +12709,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
         <v>1260</v>
       </c>
@@ -12722,7 +12720,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
         <v>1262</v>
       </c>
@@ -12733,7 +12731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
         <v>1264</v>
       </c>
@@ -12744,7 +12742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
         <v>1266</v>
       </c>
@@ -12755,7 +12753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
         <v>1268</v>
       </c>
@@ -12766,7 +12764,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
         <v>1270</v>
       </c>
@@ -12777,7 +12775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
         <v>1272</v>
       </c>
@@ -12788,7 +12786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
         <v>1274</v>
       </c>
@@ -12799,7 +12797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
         <v>1276</v>
       </c>
@@ -12810,7 +12808,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
         <v>1278</v>
       </c>
@@ -12821,7 +12819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
         <v>1280</v>
       </c>
@@ -12832,7 +12830,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
         <v>1282</v>
       </c>
@@ -12843,7 +12841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
         <v>1284</v>
       </c>
@@ -12854,7 +12852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
         <v>1286</v>
       </c>
@@ -12865,7 +12863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
         <v>1288</v>
       </c>
@@ -12876,7 +12874,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
         <v>1290</v>
       </c>
@@ -12887,7 +12885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
         <v>1292</v>
       </c>
@@ -12898,7 +12896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
         <v>1294</v>
       </c>
@@ -12909,7 +12907,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
         <v>1296</v>
       </c>
@@ -12920,7 +12918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
         <v>1298</v>
       </c>
@@ -12931,7 +12929,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
         <v>1300</v>
       </c>
@@ -12942,7 +12940,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
         <v>1302</v>
       </c>
@@ -12953,7 +12951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
         <v>1304</v>
       </c>
@@ -12964,7 +12962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
         <v>1306</v>
       </c>
@@ -12975,7 +12973,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
         <v>1308</v>
       </c>
@@ -12986,7 +12984,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
         <v>1310</v>
       </c>
@@ -12997,7 +12995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
         <v>1312</v>
       </c>
@@ -13008,7 +13006,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
         <v>1314</v>
       </c>
@@ -13019,7 +13017,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
         <v>1316</v>
       </c>
@@ -13030,7 +13028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
         <v>1318</v>
       </c>
@@ -13041,7 +13039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
         <v>1320</v>
       </c>
@@ -13052,7 +13050,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
         <v>1322</v>
       </c>
@@ -13063,7 +13061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
         <v>1324</v>
       </c>
@@ -13074,7 +13072,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
         <v>1326</v>
       </c>
@@ -13085,7 +13083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
         <v>1328</v>
       </c>
@@ -13096,7 +13094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
         <v>1330</v>
       </c>
@@ -13107,7 +13105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
         <v>1332</v>
       </c>
@@ -13118,7 +13116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
         <v>1334</v>
       </c>
@@ -13129,7 +13127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
         <v>1336</v>
       </c>
@@ -13140,7 +13138,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
         <v>1337</v>
       </c>
@@ -13151,7 +13149,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
         <v>1339</v>
       </c>
@@ -13162,7 +13160,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
         <v>1341</v>
       </c>
@@ -13173,7 +13171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
         <v>1343</v>
       </c>
@@ -13184,7 +13182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
         <v>1345</v>
       </c>
@@ -13195,7 +13193,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
         <v>1347</v>
       </c>
@@ -13206,7 +13204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
         <v>1349</v>
       </c>
@@ -13217,7 +13215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
         <v>1351</v>
       </c>
@@ -13228,7 +13226,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
         <v>1353</v>
       </c>
@@ -13239,7 +13237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
         <v>1355</v>
       </c>
@@ -13250,7 +13248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
         <v>1357</v>
       </c>
@@ -13261,7 +13259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
         <v>1359</v>
       </c>
@@ -13272,7 +13270,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
         <v>1361</v>
       </c>
@@ -13283,7 +13281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
         <v>1363</v>
       </c>
@@ -13294,7 +13292,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
         <v>1365</v>
       </c>
@@ -13305,7 +13303,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
         <v>1367</v>
       </c>
@@ -13316,7 +13314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
         <v>1369</v>
       </c>
@@ -13327,7 +13325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
         <v>1371</v>
       </c>
@@ -13338,7 +13336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
         <v>1373</v>
       </c>
@@ -13349,7 +13347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
         <v>1375</v>
       </c>
@@ -13360,7 +13358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
         <v>1377</v>
       </c>
@@ -13371,7 +13369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
         <v>1379</v>
       </c>
@@ -13382,7 +13380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
         <v>1381</v>
       </c>
@@ -13393,7 +13391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
         <v>1383</v>
       </c>
@@ -13404,7 +13402,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
         <v>1385</v>
       </c>
@@ -13415,7 +13413,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
         <v>1387</v>
       </c>
@@ -13426,7 +13424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
         <v>1389</v>
       </c>
@@ -13437,7 +13435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
         <v>1391</v>
       </c>
@@ -13448,7 +13446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
         <v>1393</v>
       </c>
@@ -13459,7 +13457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
         <v>1395</v>
       </c>
@@ -13470,7 +13468,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
         <v>1397</v>
       </c>
@@ -13481,7 +13479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
         <v>1399</v>
       </c>
@@ -13492,7 +13490,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
         <v>1401</v>
       </c>
@@ -13503,7 +13501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
         <v>1403</v>
       </c>
@@ -13514,7 +13512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
         <v>1405</v>
       </c>
@@ -13525,7 +13523,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
         <v>1407</v>
       </c>
@@ -13536,7 +13534,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
         <v>1409</v>
       </c>
@@ -13547,7 +13545,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
         <v>1411</v>
       </c>
@@ -13558,7 +13556,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
         <v>1413</v>
       </c>
@@ -13569,7 +13567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
         <v>1415</v>
       </c>
@@ -13580,7 +13578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
         <v>1417</v>
       </c>
@@ -13591,7 +13589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
         <v>1419</v>
       </c>
@@ -13602,7 +13600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
         <v>1421</v>
       </c>
@@ -13613,7 +13611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
         <v>1423</v>
       </c>
@@ -13624,7 +13622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
         <v>1425</v>
       </c>
@@ -13635,7 +13633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
         <v>1427</v>
       </c>
@@ -13646,7 +13644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
         <v>1429</v>
       </c>
@@ -13657,7 +13655,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
         <v>1431</v>
       </c>
@@ -13668,7 +13666,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
         <v>1433</v>
       </c>
@@ -13679,7 +13677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
         <v>1435</v>
       </c>
@@ -13690,7 +13688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
         <v>1437</v>
       </c>
@@ -13701,7 +13699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
         <v>1439</v>
       </c>
@@ -13712,7 +13710,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
         <v>1441</v>
       </c>
@@ -13723,7 +13721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
         <v>1443</v>
       </c>
@@ -13734,7 +13732,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
         <v>1445</v>
       </c>
@@ -13745,7 +13743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
         <v>1447</v>
       </c>
@@ -13756,7 +13754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
         <v>1449</v>
       </c>
@@ -13767,7 +13765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
         <v>1451</v>
       </c>
@@ -13778,7 +13776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
         <v>1453</v>
       </c>
@@ -13789,7 +13787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
         <v>1455</v>
       </c>
@@ -13800,7 +13798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
         <v>1457</v>
       </c>
@@ -13811,7 +13809,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
         <v>1459</v>
       </c>
@@ -13822,7 +13820,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
         <v>1461</v>
       </c>
@@ -13833,7 +13831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
         <v>1463</v>
       </c>
@@ -13844,7 +13842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
         <v>1465</v>
       </c>
@@ -13855,7 +13853,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
         <v>1467</v>
       </c>
@@ -13866,7 +13864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
         <v>1469</v>
       </c>
@@ -13877,7 +13875,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
         <v>1471</v>
       </c>
@@ -13888,7 +13886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
         <v>1473</v>
       </c>
@@ -13899,7 +13897,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
         <v>1475</v>
       </c>
@@ -13910,7 +13908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
         <v>1477</v>
       </c>
@@ -13921,7 +13919,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
         <v>1479</v>
       </c>
@@ -13932,7 +13930,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
         <v>1481</v>
       </c>
@@ -13943,7 +13941,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
         <v>1483</v>
       </c>
@@ -13954,7 +13952,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
         <v>1485</v>
       </c>
@@ -13965,7 +13963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
         <v>1487</v>
       </c>
@@ -13976,7 +13974,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
         <v>1489</v>
       </c>
@@ -13987,7 +13985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
         <v>1491</v>
       </c>
@@ -13998,7 +13996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
         <v>1493</v>
       </c>
@@ -14009,7 +14007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
         <v>1495</v>
       </c>
@@ -14020,7 +14018,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
         <v>1497</v>
       </c>
@@ -14031,7 +14029,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
         <v>1499</v>
       </c>
@@ -14042,7 +14040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
         <v>1501</v>
       </c>
@@ -14053,7 +14051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
         <v>1503</v>
       </c>
@@ -14064,7 +14062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
         <v>1505</v>
       </c>
@@ -14075,7 +14073,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
         <v>1507</v>
       </c>
@@ -14086,7 +14084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
         <v>1509</v>
       </c>
@@ -14097,7 +14095,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
         <v>1511</v>
       </c>
@@ -14108,7 +14106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
         <v>1513</v>
       </c>
@@ -14119,7 +14117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
         <v>1515</v>
       </c>
@@ -14130,7 +14128,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
         <v>1517</v>
       </c>
@@ -14141,7 +14139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
         <v>1519</v>
       </c>
@@ -14152,7 +14150,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
         <v>1521</v>
       </c>
@@ -14163,7 +14161,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
         <v>1523</v>
       </c>
@@ -14174,7 +14172,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
         <v>1525</v>
       </c>
@@ -14185,7 +14183,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
         <v>1527</v>
       </c>
@@ -14196,7 +14194,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
         <v>1529</v>
       </c>
@@ -14207,7 +14205,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
         <v>1531</v>
       </c>
@@ -14218,7 +14216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
         <v>1533</v>
       </c>
@@ -14229,7 +14227,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
         <v>1535</v>
       </c>
@@ -14240,7 +14238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
         <v>1537</v>
       </c>
@@ -14251,7 +14249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
         <v>1539</v>
       </c>
@@ -14262,7 +14260,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
         <v>1541</v>
       </c>
@@ -14273,7 +14271,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
         <v>1543</v>
       </c>
@@ -14284,7 +14282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
         <v>1545</v>
       </c>
@@ -14295,7 +14293,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
         <v>1547</v>
       </c>
@@ -14306,7 +14304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
         <v>1549</v>
       </c>
@@ -14317,7 +14315,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A778" s="0" t="s">
         <v>1551</v>
       </c>
@@ -14328,7 +14326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A779" s="0" t="s">
         <v>1553</v>
       </c>
@@ -14339,7 +14337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
         <v>1555</v>
       </c>
@@ -14350,7 +14348,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
         <v>1557</v>
       </c>
@@ -14361,7 +14359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
         <v>1559</v>
       </c>
@@ -14372,7 +14370,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
         <v>1561</v>
       </c>
@@ -14383,7 +14381,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
         <v>1563</v>
       </c>
@@ -14394,7 +14392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
         <v>1565</v>
       </c>
@@ -14405,7 +14403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
         <v>1567</v>
       </c>
@@ -14416,7 +14414,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
         <v>1569</v>
       </c>
@@ -14427,7 +14425,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
         <v>1571</v>
       </c>
@@ -14438,7 +14436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
         <v>1573</v>
       </c>
@@ -14449,7 +14447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
         <v>1575</v>
       </c>
@@ -14460,7 +14458,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
         <v>1577</v>
       </c>
@@ -14471,7 +14469,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
         <v>1579</v>
       </c>
@@ -14482,7 +14480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
         <v>1581</v>
       </c>
@@ -14493,7 +14491,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
         <v>1583</v>
       </c>
@@ -14504,7 +14502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
         <v>1585</v>
       </c>
@@ -14515,7 +14513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
         <v>1587</v>
       </c>
@@ -14526,7 +14524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
         <v>1589</v>
       </c>
@@ -14537,7 +14535,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
         <v>1591</v>
       </c>
@@ -14548,7 +14546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
         <v>1593</v>
       </c>
@@ -14559,7 +14557,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
         <v>1595</v>
       </c>
@@ -14570,7 +14568,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
         <v>1597</v>
       </c>
@@ -14581,7 +14579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
         <v>1599</v>
       </c>
@@ -14592,7 +14590,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
         <v>1601</v>
       </c>
@@ -14603,7 +14601,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
         <v>1603</v>
       </c>
@@ -14614,7 +14612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
         <v>1605</v>
       </c>
@@ -14625,7 +14623,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
         <v>1607</v>
       </c>
@@ -14636,7 +14634,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
         <v>1609</v>
       </c>
@@ -14647,7 +14645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
         <v>1611</v>
       </c>
@@ -14658,7 +14656,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
         <v>1613</v>
       </c>
@@ -14669,7 +14667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
         <v>1615</v>
       </c>
@@ -14680,7 +14678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
         <v>1617</v>
       </c>
@@ -14691,7 +14689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
         <v>1619</v>
       </c>
@@ -14702,7 +14700,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
         <v>1621</v>
       </c>
@@ -14713,7 +14711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
         <v>1623</v>
       </c>
@@ -14724,7 +14722,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
         <v>1625</v>
       </c>
@@ -14735,7 +14733,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A816" s="0" t="s">
         <v>1627</v>
       </c>
@@ -14746,7 +14744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A817" s="0" t="s">
         <v>1629</v>
       </c>
@@ -14757,7 +14755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A818" s="0" t="s">
         <v>1631</v>
       </c>
@@ -14768,7 +14766,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
         <v>1633</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
         <v>1635</v>
       </c>
@@ -14790,7 +14788,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
         <v>1637</v>
       </c>
@@ -14801,7 +14799,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
         <v>1639</v>
       </c>
@@ -14812,7 +14810,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
         <v>1641</v>
       </c>
@@ -14823,7 +14821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
         <v>1643</v>
       </c>
@@ -14834,7 +14832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
         <v>1645</v>
       </c>
@@ -14845,7 +14843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
         <v>1647</v>
       </c>
@@ -14856,7 +14854,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
         <v>1649</v>
       </c>
@@ -14867,7 +14865,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
         <v>1651</v>
       </c>
@@ -14878,7 +14876,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
         <v>1653</v>
       </c>
@@ -14889,7 +14887,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
         <v>1655</v>
       </c>
@@ -14900,7 +14898,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
         <v>1657</v>
       </c>
@@ -14911,7 +14909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
         <v>1659</v>
       </c>
@@ -14922,7 +14920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
         <v>1661</v>
       </c>
@@ -14933,7 +14931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
         <v>1663</v>
       </c>
@@ -14944,7 +14942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
         <v>1665</v>
       </c>
@@ -14955,7 +14953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
         <v>1667</v>
       </c>
@@ -14966,7 +14964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
         <v>1669</v>
       </c>
@@ -14977,7 +14975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
         <v>1671</v>
       </c>
@@ -14988,7 +14986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
         <v>1673</v>
       </c>
@@ -14999,7 +14997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
         <v>1675</v>
       </c>
@@ -15010,7 +15008,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
         <v>1677</v>
       </c>
@@ -15021,7 +15019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
         <v>1679</v>
       </c>
@@ -15032,7 +15030,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
         <v>1681</v>
       </c>
@@ -15043,7 +15041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
         <v>1683</v>
       </c>
@@ -15054,7 +15052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
         <v>1685</v>
       </c>
@@ -15065,7 +15063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
         <v>1687</v>
       </c>
@@ -15076,7 +15074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
         <v>1689</v>
       </c>
@@ -15087,7 +15085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
         <v>1691</v>
       </c>
@@ -15098,7 +15096,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
         <v>1693</v>
       </c>
@@ -15109,7 +15107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
         <v>1695</v>
       </c>
@@ -15120,7 +15118,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
         <v>1697</v>
       </c>
@@ -15131,7 +15129,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
         <v>1699</v>
       </c>
@@ -15142,7 +15140,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
         <v>1701</v>
       </c>
@@ -15153,7 +15151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
         <v>1703</v>
       </c>
@@ -15164,7 +15162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A855" s="0" t="s">
         <v>1705</v>
       </c>
@@ -15175,7 +15173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
         <v>1707</v>
       </c>
@@ -15186,7 +15184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
         <v>1709</v>
       </c>
@@ -15197,7 +15195,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
         <v>1711</v>
       </c>
@@ -15208,7 +15206,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
         <v>1713</v>
       </c>
@@ -15219,7 +15217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
         <v>1715</v>
       </c>
@@ -15230,7 +15228,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
         <v>1717</v>
       </c>
@@ -15241,7 +15239,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
         <v>1719</v>
       </c>
@@ -15252,7 +15250,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
         <v>1721</v>
       </c>
@@ -15263,7 +15261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
         <v>1723</v>
       </c>
@@ -15274,7 +15272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
         <v>1725</v>
       </c>
@@ -15285,7 +15283,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
         <v>1727</v>
       </c>
@@ -15296,7 +15294,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
         <v>1729</v>
       </c>
@@ -15307,7 +15305,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
         <v>1731</v>
       </c>
@@ -15318,7 +15316,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
         <v>1733</v>
       </c>
@@ -15329,7 +15327,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
         <v>1735</v>
       </c>
@@ -15340,7 +15338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
         <v>1737</v>
       </c>
@@ -15351,7 +15349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
         <v>1739</v>
       </c>
@@ -15362,7 +15360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
         <v>1741</v>
       </c>
@@ -15373,7 +15371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
         <v>1743</v>
       </c>
@@ -15384,7 +15382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
         <v>1745</v>
       </c>
@@ -15395,7 +15393,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
         <v>1747</v>
       </c>
@@ -15406,7 +15404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
         <v>1749</v>
       </c>
@@ -15417,7 +15415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
         <v>1751</v>
       </c>
@@ -15428,7 +15426,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
         <v>1753</v>
       </c>
@@ -15439,7 +15437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
         <v>1755</v>
       </c>
@@ -15450,7 +15448,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
         <v>1757</v>
       </c>
@@ -15461,7 +15459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
         <v>1759</v>
       </c>
@@ -15472,7 +15470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
         <v>1761</v>
       </c>
@@ -15483,7 +15481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
         <v>1763</v>
       </c>
@@ -15494,7 +15492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
         <v>1765</v>
       </c>
@@ -15505,7 +15503,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
         <v>1767</v>
       </c>
@@ -15516,7 +15514,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
         <v>1769</v>
       </c>
@@ -15527,7 +15525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
         <v>1771</v>
       </c>
@@ -15538,7 +15536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
         <v>1773</v>
       </c>
@@ -15549,7 +15547,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
         <v>1775</v>
       </c>
@@ -15560,7 +15558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
         <v>1777</v>
       </c>
@@ -15571,7 +15569,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
         <v>1779</v>
       </c>
@@ -15582,7 +15580,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
         <v>1781</v>
       </c>
@@ -15593,7 +15591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
         <v>1783</v>
       </c>
@@ -15604,7 +15602,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
         <v>1785</v>
       </c>
@@ -15615,7 +15613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
         <v>1787</v>
       </c>
@@ -15626,7 +15624,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
         <v>1789</v>
       </c>
@@ -15637,7 +15635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
         <v>1791</v>
       </c>
@@ -15648,7 +15646,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
         <v>1793</v>
       </c>
@@ -15659,7 +15657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
         <v>1795</v>
       </c>
@@ -15670,7 +15668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
         <v>1797</v>
       </c>
@@ -15681,7 +15679,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
         <v>1799</v>
       </c>
@@ -15692,7 +15690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
         <v>1801</v>
       </c>
@@ -15703,7 +15701,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
         <v>1803</v>
       </c>
@@ -15714,7 +15712,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
         <v>1805</v>
       </c>
@@ -15725,7 +15723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
         <v>1807</v>
       </c>
@@ -15736,7 +15734,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
         <v>1809</v>
       </c>
@@ -15747,7 +15745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A908" s="0" t="s">
         <v>1811</v>
       </c>
@@ -15758,7 +15756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A909" s="0" t="s">
         <v>1813</v>
       </c>
@@ -15769,7 +15767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A910" s="0" t="s">
         <v>1815</v>
       </c>
@@ -15780,7 +15778,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="0" t="s">
         <v>1817</v>
       </c>
@@ -15791,7 +15789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="0" t="s">
         <v>1819</v>
       </c>
@@ -15802,7 +15800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A913" s="0" t="s">
         <v>1821</v>
       </c>
@@ -15813,7 +15811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A914" s="0" t="s">
         <v>1823</v>
       </c>
@@ -15824,7 +15822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A915" s="0" t="s">
         <v>1825</v>
       </c>
@@ -15835,7 +15833,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A916" s="0" t="s">
         <v>1827</v>
       </c>
@@ -15846,7 +15844,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="0" t="s">
         <v>1829</v>
       </c>
@@ -15857,7 +15855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="0" t="s">
         <v>1831</v>
       </c>
@@ -15868,7 +15866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="0" t="s">
         <v>1833</v>
       </c>
@@ -15879,7 +15877,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A920" s="0" t="s">
         <v>1835</v>
       </c>
@@ -15890,7 +15888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A921" s="0" t="s">
         <v>1837</v>
       </c>
@@ -15901,7 +15899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A922" s="0" t="s">
         <v>1839</v>
       </c>
@@ -15912,7 +15910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A923" s="0" t="s">
         <v>1841</v>
       </c>
@@ -15923,7 +15921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A924" s="0" t="s">
         <v>1843</v>
       </c>
@@ -15934,7 +15932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A925" s="0" t="s">
         <v>1845</v>
       </c>
@@ -15945,7 +15943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A926" s="0" t="s">
         <v>1847</v>
       </c>
@@ -15956,7 +15954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A927" s="0" t="s">
         <v>1849</v>
       </c>
@@ -15967,7 +15965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A928" s="0" t="s">
         <v>1851</v>
       </c>
@@ -15978,7 +15976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="929" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A929" s="0" t="s">
         <v>1853</v>
       </c>
@@ -15989,7 +15987,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="930" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A930" s="0" t="s">
         <v>1855</v>
       </c>
@@ -16000,7 +15998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="931" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A931" s="0" t="s">
         <v>1857</v>
       </c>
@@ -16011,7 +16009,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="932" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A932" s="0" t="s">
         <v>1859</v>
       </c>
@@ -16022,7 +16020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="933" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="0" t="s">
         <v>1861</v>
       </c>
@@ -16033,7 +16031,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="934" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="0" t="s">
         <v>1863</v>
       </c>
@@ -16044,7 +16042,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="935" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="0" t="s">
         <v>1865</v>
       </c>
@@ -16055,7 +16053,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="936" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A936" s="0" t="s">
         <v>1867</v>
       </c>
@@ -16066,7 +16064,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="937" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A937" s="0" t="s">
         <v>1869</v>
       </c>
@@ -16077,7 +16075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="938" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="0" t="s">
         <v>1871</v>
       </c>
@@ -16091,18 +16089,18 @@
     <row r="939" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C939" s="1"/>
     </row>
-    <row r="946" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C946" s="0" t="s">
         <v>1873</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>